--- a/campos_supervision_excel.xlsx
+++ b/campos_supervision_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuario\dsld14\pruebas-UI-SisDNA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94AB1E4-0509-47DD-8F17-58BE534D9E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A2E792B-C7D4-4F04-B6DE-9D0749DD58E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="42">
   <si>
     <t>ID</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>12:30</t>
+  </si>
+  <si>
+    <t>Dan Sativañez Gutarra</t>
   </si>
 </sst>
 </file>
@@ -192,10 +195,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -480,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,7 +504,10 @@
     <col min="16" max="16" width="19.42578125" style="1" customWidth="1"/>
     <col min="17" max="17" width="14.42578125" style="1" customWidth="1"/>
     <col min="18" max="18" width="12" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="19" max="19" width="9.140625" style="1"/>
+    <col min="20" max="20" width="25" style="1" customWidth="1"/>
+    <col min="21" max="21" width="23" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
@@ -610,7 +615,7 @@
       <c r="M2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="O2" s="1" t="s">
@@ -631,7 +636,7 @@
       <c r="T2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="U2" s="2" t="s">
         <v>31</v>
       </c>
     </row>
@@ -658,7 +663,7 @@
         <v>25</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>27</v>
@@ -696,7 +701,7 @@
       <c r="T3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="U3" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -761,7 +766,7 @@
       <c r="T4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="U4" s="2" t="s">
+      <c r="U4" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -826,7 +831,7 @@
       <c r="T5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="U5" s="2" t="s">
+      <c r="U5" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -891,7 +896,7 @@
       <c r="T6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="U6" s="2" t="s">
+      <c r="U6" s="1" t="s">
         <v>31</v>
       </c>
     </row>
